--- a/11-12-22/school_dropouts.xlsx
+++ b/11-12-22/school_dropouts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stat-Devs\Repositories\Website-Development\Exploratory-Sunday\11-12-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B560107-B071-40BA-8802-B88731C41B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35DDD2-A062-4E59-B4AE-A15FAD12A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C294FA4-93AE-4BE7-98FE-4BED2FF08126}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
